--- a/granary/【校区】-组员进度表.xlsx
+++ b/granary/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,7 +65,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成首页、登录页面</t>
+    <t>完成首页、登录、注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购物车、商店、杂志页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成分享、达人、详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目测试，不足的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目答辩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +476,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -509,7 +525,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -519,7 +537,9 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -529,7 +549,9 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -539,7 +561,9 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/granary/【校区】-组员进度表.xlsx
+++ b/granary/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>项目答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成，少数效果实现不完美，需进一步改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7点半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">静态页面布局有些不熟练 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉了之前学习的静态布局和jquery知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +492,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -516,10 +532,18 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">

--- a/granary/【校区】-组员进度表.xlsx
+++ b/granary/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>熟悉了之前学习的静态布局和jquery知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品页、分享页、杂志页、登录页，注册页的js效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品页布局和ajax不太会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会了ajax从后台获取数据，并显示到页面上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +508,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -552,10 +568,18 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">

--- a/granary/【校区】-组员进度表.xlsx
+++ b/granary/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,22 @@
   </si>
   <si>
     <t>学会了ajax从后台获取数据，并显示到页面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善注册页效果，完成商品详情页，购物车布局，达人页面少部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局有问题，需要帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉静态布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,7 +524,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,10 +604,18 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">

--- a/granary/【校区】-组员进度表.xlsx
+++ b/granary/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目测试，不足的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目答辩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,26 @@
   </si>
   <si>
     <t>继续熟悉静态布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成，但还有不少效果没有实现，时间太短，需进一步盖上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目测试，不足的修改，项目上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车更新效果有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会了详情页的制作，添加购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,16 +581,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
@@ -585,16 +601,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -605,16 +621,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
@@ -622,19 +638,27 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
